--- a/src/Data/FileExcel1068.xlsx
+++ b/src/Data/FileExcel1068.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Workspace\PersonalWebsite\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:8001_{A4DAFD85-B68F-4B76-8EEB-4C8BEEEC73BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7A2DCF-23C4-4716-B526-9FD8EB1C42F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,31 +128,6 @@
     <t>https://www.forbes.com/advisor/money-transfer/currency-converter/</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tong dai 1068 gui thong tin theo yêu cầu Quy khach:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tên./ SĐT./Địa chỉ.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-De biet thong tin khac vui long goi 1068. Xin tran trong cam on!</t>
-    </r>
-  </si>
-  <si>
     <t>Nội dung</t>
   </si>
   <si>
@@ -223,13 +198,16 @@
   <si>
     <t>198
 18009098 (Ngoại mạng)</t>
+  </si>
+  <si>
+    <t>Tong dai 1068 gui thong tin theo yêu cầu Quy khach:  .De biet thong tin khac vui long goi 1068. Xin tran trong cam on!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,12 +225,6 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -471,10 +443,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,7 +757,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -803,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -845,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>11</v>
@@ -869,7 +841,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="F5" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5"/>
@@ -902,12 +874,12 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="F11" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="31"/>
     </row>
@@ -922,10 +894,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,7 +917,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -975,10 +947,10 @@
     </row>
     <row r="17" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>22</v>
@@ -1033,25 +1005,25 @@
         <v>19002125</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>14</v>
@@ -1059,46 +1031,46 @@
     </row>
     <row r="27" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5"/>
     </row>
